--- a/manual/Skill_transfer_schedule.xlsx
+++ b/manual/Skill_transfer_schedule.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4D457F-5C48-4016-B7C4-C15E5B88DB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>(1)refer db directly</t>
     <phoneticPr fontId="1"/>
@@ -53,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apr22 13:00-17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(6)how to release program</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -65,32 +70,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apr21 14:30-17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(5)create new user's env</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apr21 13:00-14:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(4)vpn key maintenance</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apr20 15:00-17:00</t>
-  </si>
-  <si>
     <t>(3)auto shutdown , auto open</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apr20 13:00-14:00</t>
-  </si>
-  <si>
     <t>(2)backup ,  backup and rotation  , restore</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,10 +109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apr6 13:00-17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)AWS environment  (Production site)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,236 +125,211 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>self study</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">understand webcoop feature </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>webcoop feature</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>06</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Mar30-31 (self study)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(2)sample coding by excel report</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Mar26 13:00-15:00</t>
-    <phoneticPr fontId="1"/>
+    <t>understand how to use excel report (user side programing)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other coding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)basic design2 , model , view , inheritance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)basic design , folder and file structure , access right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)frame work (Odoo)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1) how to debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand Odoo's basic coding , and how to debug (with Odoo's developer book)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Study , for Debug , Coding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand system structure briefly for making clear whole image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Infrastructure (briefly)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make environment for maintenance pc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Establish client environment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aws access </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git server</t>
+  </si>
+  <si>
+    <t>make environment for sharing source and other document</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Establish team environment </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand study schedule and task as a whole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kick off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>draft schedule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purpose / study target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The detail will be added or adjusted later , probably.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Below table is draft schedule , and brief work package.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webcoop feature</t>
+  </si>
+  <si>
+    <t>Self study</t>
+  </si>
+  <si>
+    <t>(5)sample coding ( self Practice)</t>
+  </si>
+  <si>
+    <t>September 23-25</t>
+  </si>
+  <si>
+    <t>September 28-29</t>
+  </si>
+  <si>
+    <t>ssh , vmware  , etc</t>
+  </si>
+  <si>
+    <t>September 30 -  Oct 16</t>
   </si>
   <si>
     <t>(1)excel report</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>understand how to use excel report (user side programing)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Other coding</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(6)sample coding with acutal source</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar19 - Mar25 (self study)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(5)sample coding</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar18 13:00-17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4)basic design2 , model , view , inheritance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar17 15:30-17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3)basic design , folder and file structure , access right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar17 13:00-15:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2)frame work (Odoo)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar16 15:00 -17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1) how to debug</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>understand Odoo's basic coding , and how to debug (with Odoo's developer book)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Study , for Debug , Coding</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar16 13:00 - 14:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>understand system structure briefly for making clear whole image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Infrastructure (briefly)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ssh , vmware , sourcetree , etc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar13 13:00 - 18:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>make environment for maintenance pc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Establish client environment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">aws access </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>git server</t>
-  </si>
-  <si>
-    <t>make environment for sharing source and other document</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Establish team environment </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mar12 13:00 - 18:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>understand study schedule and task as a whole</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Kick off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>draft schedule</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>purpose / study target</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>no.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The detail will be added or adjusted later , probably.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Below table is draft schedule , and brief work package.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11.Reserved</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>October 19-20</t>
+  </si>
+  <si>
+    <t>October 21- November 6</t>
+  </si>
+  <si>
+    <t>November 9-10</t>
+  </si>
+  <si>
+    <t>November 7 -8</t>
+  </si>
+  <si>
+    <t>November 11-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -527,57 +489,57 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,87 +816,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="22.25" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="18">
-        <v>43902</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickTop="1">
+      <c r="B4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -952,39 +908,35 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="18">
-        <v>43903</v>
-      </c>
+    <row r="7" spans="1:17">
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1000,11 +952,11 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1020,7 +972,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1038,39 +990,37 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:17">
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="18">
-        <v>43903</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1086,7 +1036,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1104,35 +1054,33 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="18">
-        <v>43906</v>
+    <row r="14" spans="1:17">
+      <c r="B14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1150,39 +1098,37 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="18">
-        <v>43906</v>
-      </c>
-      <c r="O16" s="18">
-        <v>43921</v>
-      </c>
+    <row r="16" spans="1:17">
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="17"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1196,15 +1142,13 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1218,15 +1162,13 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1240,15 +1182,13 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1262,15 +1202,13 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1284,16 +1222,12 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1308,7 +1242,7 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1326,35 +1260,37 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="5"/>
+    <row r="24" spans="1:17">
+      <c r="B24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:17">
+      <c r="B25" s="15"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1368,15 +1304,13 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B26" s="16"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="15"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1390,12 +1324,10 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="16"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="15"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1412,60 +1344,54 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="18">
-        <v>43922</v>
-      </c>
-      <c r="O28" s="18">
-        <v>43923</v>
-      </c>
+    <row r="28" spans="1:17">
+      <c r="B28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="17"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="16"/>
+    <row r="29" spans="1:17">
+      <c r="B29" s="15"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="10">
-        <v>43927</v>
-      </c>
-      <c r="O29" s="10">
-        <v>43931</v>
-      </c>
+      <c r="F29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="16"/>
+    <row r="30" spans="1:17">
+      <c r="B30" s="15"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1482,37 +1408,39 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="5"/>
+    <row r="31" spans="1:17" ht="40.5" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
+    <row r="32" spans="1:17">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1523,22 +1451,18 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="10">
-        <v>43934</v>
-      </c>
+      <c r="N32" s="10"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1553,12 +1477,12 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1569,18 +1493,14 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="10">
-        <v>43935</v>
-      </c>
-      <c r="O34" s="10">
-        <v>43938</v>
-      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16"/>
+    <row r="35" spans="1:17">
+      <c r="A35" s="16"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1597,37 +1517,39 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="12" t="s">
-        <v>21</v>
+    <row r="36" spans="1:17">
+      <c r="A36" s="16"/>
+      <c r="B36" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="18"/>
+      <c r="F36" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:17">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1638,21 +1560,17 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="10">
-        <v>43941</v>
-      </c>
+      <c r="N37" s="10"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1663,20 +1581,16 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="10">
-        <v>43941</v>
-      </c>
+      <c r="N38" s="10"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="B39" s="9"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1687,20 +1601,16 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="10">
-        <v>43941</v>
-      </c>
+      <c r="N39" s="10"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="9"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -1711,20 +1621,16 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="10">
-        <v>43942</v>
-      </c>
+      <c r="N40" s="10"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -1735,21 +1641,17 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="10">
-        <v>43942</v>
-      </c>
+      <c r="N41" s="10"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1764,11 +1666,11 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17">
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="14" t="s">
-        <v>8</v>
+      <c r="D43" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1779,16 +1681,12 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="10">
-        <v>43943</v>
-      </c>
+      <c r="N43" s="10"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1806,8 +1704,8 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B45" s="12" t="s">
+    <row r="45" spans="1:17">
+      <c r="B45" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1815,22 +1713,24 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="5"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17">
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
@@ -1845,14 +1745,12 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="10">
-        <v>43948</v>
-      </c>
+      <c r="N46" s="10"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17">
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
@@ -1867,16 +1765,12 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="10">
-        <v>43949</v>
-      </c>
-      <c r="O47" s="10">
-        <v>43951</v>
-      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17">
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1894,7 +1788,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:17">
       <c r="B49" s="6" t="s">
         <v>1</v>
       </c>
@@ -1914,87 +1808,83 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B50" s="23"/>
-      <c r="C50" s="24" t="s">
+    <row r="50" spans="2:17">
+      <c r="B50" s="21"/>
+      <c r="C50" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="25"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="25"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B52" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="26">
-        <v>43952</v>
-      </c>
-      <c r="O52" s="26">
-        <v>43981</v>
-      </c>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="25"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="25"/>
-    </row>
-    <row r="54" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="23"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="23"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="23"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="23"/>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" thickBot="1">
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2012,21 +1902,9 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="2:17" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:M24"/>
     <mergeCell ref="F45:M45"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:M28"/>
@@ -2034,6 +1912,18 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="F36:M36"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
